--- a/ResultadoEleicoesDistritos/SETÚBAL_SINES.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_SINES.xlsx
@@ -597,25 +597,25 @@
         <v>3615</v>
       </c>
       <c r="H2" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I2" t="n">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="J2" t="n">
-        <v>1560</v>
+        <v>1451</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,34 +624,34 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="T2" t="n">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="U2" t="n">
         <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>2286</v>
+        <v>2317</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2283</v>
+        <v>2330</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
